--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value930.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value930.xlsx
@@ -354,7 +354,7 @@
         <v>2.17345033631555</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.657473616739115</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value930.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value930.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.449385102524999</v>
+        <v>1.096435308456421</v>
       </c>
       <c r="B1">
-        <v>2.17345033631555</v>
+        <v>1.899765133857727</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.657473616739115</v>
+        <v>1.107171177864075</v>
       </c>
       <c r="E1">
-        <v>0.5854116110335104</v>
+        <v>1.135149240493774</v>
       </c>
     </row>
   </sheetData>
